--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf9-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf9-Fgfr3.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.540155</v>
+        <v>0.342322</v>
       </c>
       <c r="H2">
-        <v>4.620465</v>
+        <v>1.026966</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.619953333333334</v>
+        <v>5.751166666666666</v>
       </c>
       <c r="N2">
-        <v>7.85986</v>
+        <v>17.2535</v>
       </c>
       <c r="O2">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="P2">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="Q2">
-        <v>4.035134226100001</v>
+        <v>1.968750875666666</v>
       </c>
       <c r="R2">
-        <v>36.3162080349</v>
+        <v>17.71875788099999</v>
       </c>
       <c r="S2">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="T2">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.540155</v>
+        <v>0.342322</v>
       </c>
       <c r="H3">
-        <v>4.620465</v>
+        <v>1.026966</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>1.709545</v>
       </c>
       <c r="O3">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367415998</v>
       </c>
       <c r="P3">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367416</v>
       </c>
       <c r="Q3">
-        <v>0.8776547598250001</v>
+        <v>0.1950716211633333</v>
       </c>
       <c r="R3">
-        <v>7.898892838425</v>
+        <v>1.75564459047</v>
       </c>
       <c r="S3">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367415998</v>
       </c>
       <c r="T3">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367416</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.540155</v>
+        <v>0.342322</v>
       </c>
       <c r="H4">
-        <v>4.620465</v>
+        <v>1.026966</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.105183</v>
+        <v>1.445350666666667</v>
       </c>
       <c r="N4">
-        <v>3.315549</v>
+        <v>4.336052</v>
       </c>
       <c r="O4">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="P4">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="Q4">
-        <v>1.702153123365</v>
+        <v>0.4947753309146667</v>
       </c>
       <c r="R4">
-        <v>15.319378110285</v>
+        <v>4.452977978232</v>
       </c>
       <c r="S4">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="T4">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
     </row>
   </sheetData>
